--- a/biology/Médecine/Jean_François_Clément_Morand/Jean_François_Clément_Morand.xlsx
+++ b/biology/Médecine/Jean_François_Clément_Morand/Jean_François_Clément_Morand.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jean_Fran%C3%A7ois_Cl%C3%A9ment_Morand</t>
+          <t>Jean_François_Clément_Morand</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean François Clément Morand est un médecin et scientifique français, directeur et bibliothécaire de l'Académie des sciences, professeur au Collège de France, né le 28 avril 1726 à Paris où il est mort le 13 août 1784. 
 Il a été le médecin de Stanislas, roi de Pologne, duc de Lorraine. 
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jean_Fran%C3%A7ois_Cl%C3%A9ment_Morand</t>
+          <t>Jean_François_Clément_Morand</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fils[1] du célèbre chirurgien Sauveur-François Morand et de Marie-Clémence Guerin. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fils du célèbre chirurgien Sauveur-François Morand et de Marie-Clémence Guerin. 
 Il est reçu docteur à Paris en 1750, il pratiqua peu la médecine, préférant s'occuper de recherches scientifiques. Morand devint membre (1759), puis bibliothécaire de l'Académie des sciences, et fit partie des principales sociétés savantes de l'Europe. 
 Il s'occupa principalement des faits singuliers que présente le domaine scientifique. Tous les sujets lui étaient bons ; aussi trouve-t-on de lui, dans le recueil de l'Académie des sciences et dans quelques autres, la collection la plus bigarrée de mémoires sur les questions les plus diverses : sur des analyses d'eaux, minérales, sur les effets de remèdes nouveaux, sur l'usage de nouveaux instruments de chirurgie, sur quelques maladies extraordinaires, sur la botanique, sur la météorologie, sur diverses antiquités, sur l'exploitation des mines de charbon de terre, etc.
 </t>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jean_Fran%C3%A7ois_Cl%C3%A9ment_Morand</t>
+          <t>Jean_François_Clément_Morand</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Œuvres et publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Histoire de la maladie singulière et de l'examen du cadavre d'une femme, devenue en peu de temps toute contrefaite par un ramollissement général des os, Paris, Quillau, 1752, Texte intégral.
 Lettre de M. Morand, ... à M. Le Roy, sur l'histoire de la femme Supiot, Paris, Quillau, 1753, Texte intégral.
